--- a/outputs-HGR-r202-archive/g__Gemmiger.xlsx
+++ b/outputs-HGR-r202-archive/g__Gemmiger.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger formicilis(reject)</t>
         </is>
       </c>
     </row>
@@ -2871,383 +2871,383 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57167.fa</t>
+          <t>even_MAG-GUT57693.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8536370030170169</v>
+        <v>0.004465588659399359</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001123179707768323</v>
+        <v>0.6736327824003436</v>
       </c>
       <c r="D44" t="n">
-        <v>2.462400957589631e-14</v>
+        <v>7.751291259106156e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0001674638285117358</v>
+        <v>0.1503262354376901</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01115718458904034</v>
+        <v>0.02065323750954244</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1260160785322243</v>
+        <v>0.0236153902080747</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0001081452613296301</v>
+        <v>0.01054468379787312</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0001357405949677872</v>
+        <v>0.001666006924189007</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0003028076476571375</v>
+        <v>0.02952206919443906</v>
       </c>
       <c r="K44" t="n">
-        <v>0.003197923155872664</v>
+        <v>0.02152266374381908</v>
       </c>
       <c r="L44" t="n">
-        <v>0.004381485520498179</v>
+        <v>0.008104195777762837</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0007838498820796437</v>
+        <v>0.05594714634678893</v>
       </c>
       <c r="N44" t="n">
-        <v>0.8536370030170169</v>
+        <v>0.6736327824003436</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger qucibialis</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger qucibialis(reject)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57693.fa</t>
+          <t>even_MAG-GUT58135.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.004465588659399359</v>
+        <v>0.02842094686505129</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6736327824003436</v>
+        <v>0.03518297387564968</v>
       </c>
       <c r="D45" t="n">
-        <v>7.751291259106156e-14</v>
+        <v>7.709352314131583e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1503262354376901</v>
+        <v>0.7202379906969896</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02065323750954244</v>
+        <v>0.03207086273877338</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0236153902080747</v>
+        <v>0.09253006503570393</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01054468379787312</v>
+        <v>0.03695451883150032</v>
       </c>
       <c r="I45" t="n">
-        <v>0.001666006924189007</v>
+        <v>4.694886059454068e-08</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02952206919443906</v>
+        <v>0.0220478718284597</v>
       </c>
       <c r="K45" t="n">
-        <v>0.02152266374381908</v>
+        <v>0.0004705045092643563</v>
       </c>
       <c r="L45" t="n">
-        <v>0.008104195777762837</v>
+        <v>0.01708260297569796</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05594714634678893</v>
+        <v>0.01500161569397221</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6736327824003436</v>
+        <v>0.7202379906969896</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>s__Gemmiger qucibialis</t>
+          <t>s__Gemmiger sp900539695</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>s__Gemmiger qucibialis(reject)</t>
+          <t>s__Gemmiger sp900539695</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57808.fa</t>
+          <t>even_MAG-GUT5884.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.7979858400694944</v>
+        <v>6.855548379302949e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001464443087468316</v>
+        <v>0.8681688176746829</v>
       </c>
       <c r="D46" t="n">
-        <v>7.452079141047481e-14</v>
+        <v>2.302193055040306e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04690907323163825</v>
+        <v>0.0960603610750074</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02610385039800055</v>
+        <v>0.006593882706381836</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06856771193411297</v>
+        <v>0.002716629380370899</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0003758064468039752</v>
+        <v>0.006135885177558288</v>
       </c>
       <c r="I46" t="n">
-        <v>1.277414223208027e-06</v>
+        <v>1.230771968700943e-06</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03445156655422683</v>
+        <v>0.005995119382159545</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0008733621145899545</v>
+        <v>0.01034952681178331</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01996722033185645</v>
+        <v>0.001890232267725855</v>
       </c>
       <c r="M46" t="n">
-        <v>0.003299848417510682</v>
+        <v>0.002019759268545278</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7979858400694944</v>
+        <v>0.8681688176746829</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger qucibialis</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger qucibialis</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58135.fa</t>
+          <t>even_MAG-GUT59481.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02842094686505129</v>
+        <v>0.9228277923969689</v>
       </c>
       <c r="C47" t="n">
-        <v>0.03518297387564968</v>
+        <v>0.0002989331076057846</v>
       </c>
       <c r="D47" t="n">
-        <v>7.709352314131583e-14</v>
+        <v>6.98767715675673e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7202379906969896</v>
+        <v>0.01707432905459337</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03207086273877338</v>
+        <v>0.02507791609186758</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09253006503570393</v>
+        <v>0.003084585656289639</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03695451883150032</v>
+        <v>0.0003000376948007859</v>
       </c>
       <c r="I47" t="n">
-        <v>4.694886059454068e-08</v>
+        <v>1.147773579176185e-05</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0220478718284597</v>
+        <v>0.006180326431238811</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0004705045092643563</v>
+        <v>0.0004206822097933224</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01708260297569796</v>
+        <v>0.02069422656428654</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01500161569397221</v>
+        <v>0.00402969305669372</v>
       </c>
       <c r="N47" t="n">
-        <v>0.7202379906969896</v>
+        <v>0.9228277923969689</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>s__Gemmiger sp900539695</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>s__Gemmiger sp900539695</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5884.fa</t>
+          <t>even_MAG-GUT60072.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6.855548379302949e-05</v>
+        <v>0.8317831651391098</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8681688176746829</v>
+        <v>0.001155529637962761</v>
       </c>
       <c r="D48" t="n">
-        <v>2.302193055040306e-14</v>
+        <v>1.761220150634369e-13</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0960603610750074</v>
+        <v>0.02985262509921626</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006593882706381836</v>
+        <v>0.0177751148197768</v>
       </c>
       <c r="G48" t="n">
-        <v>0.002716629380370899</v>
+        <v>0.03416368808012014</v>
       </c>
       <c r="H48" t="n">
-        <v>0.006135885177558288</v>
+        <v>0.000331805716403728</v>
       </c>
       <c r="I48" t="n">
-        <v>1.230771968700943e-06</v>
+        <v>3.309956680244916e-05</v>
       </c>
       <c r="J48" t="n">
-        <v>0.005995119382159545</v>
+        <v>0.03213134966960763</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01034952681178331</v>
+        <v>0.0004802803025565448</v>
       </c>
       <c r="L48" t="n">
-        <v>0.001890232267725855</v>
+        <v>0.05004835040008925</v>
       </c>
       <c r="M48" t="n">
-        <v>0.002019759268545278</v>
+        <v>0.002244991568178418</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8681688176746829</v>
+        <v>0.8317831651391098</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>s__Gemmiger qucibialis</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>s__Gemmiger qucibialis</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59481.fa</t>
+          <t>even_MAG-GUT60158.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9228277923969689</v>
+        <v>0.006563478525477116</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0002989331076057846</v>
+        <v>0.9441072902628724</v>
       </c>
       <c r="D49" t="n">
-        <v>6.98767715675673e-14</v>
+        <v>2.221708945094197e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01707432905459337</v>
+        <v>0.0006796576588197518</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02507791609186758</v>
+        <v>0.01993842086409896</v>
       </c>
       <c r="G49" t="n">
-        <v>0.003084585656289639</v>
+        <v>0.0002131802686650861</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0003000376948007859</v>
+        <v>0.02079617914471086</v>
       </c>
       <c r="I49" t="n">
-        <v>1.147773579176185e-05</v>
+        <v>1.735685290406375e-09</v>
       </c>
       <c r="J49" t="n">
-        <v>0.006180326431238811</v>
+        <v>0.00013768648311161</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0004206822097933224</v>
+        <v>2.081688734814665e-05</v>
       </c>
       <c r="L49" t="n">
-        <v>0.02069422656428654</v>
+        <v>0.002142987184823205</v>
       </c>
       <c r="M49" t="n">
-        <v>0.00402969305669372</v>
+        <v>0.005400300984365154</v>
       </c>
       <c r="N49" t="n">
-        <v>0.9228277923969689</v>
+        <v>0.9441072902628724</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger qucibialis</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger qucibialis</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60072.fa</t>
+          <t>even_MAG-GUT60164.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8317831651391098</v>
+        <v>0.9355368332486419</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001155529637962761</v>
+        <v>0.0001519872719220782</v>
       </c>
       <c r="D50" t="n">
-        <v>1.761220150634369e-13</v>
+        <v>5.098358681933613e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02985262509921626</v>
+        <v>0.008512105432972315</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0177751148197768</v>
+        <v>0.02661574480257276</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03416368808012014</v>
+        <v>0.002169979215597017</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000331805716403728</v>
+        <v>0.0001378285207559669</v>
       </c>
       <c r="I50" t="n">
-        <v>3.309956680244916e-05</v>
+        <v>6.311097095959288e-06</v>
       </c>
       <c r="J50" t="n">
-        <v>0.03213134966960763</v>
+        <v>0.006724096464147886</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0004802803025565448</v>
+        <v>0.0002412338248304902</v>
       </c>
       <c r="L50" t="n">
-        <v>0.05004835040008925</v>
+        <v>0.01841385697322543</v>
       </c>
       <c r="M50" t="n">
-        <v>0.002244991568178418</v>
+        <v>0.001490023148187137</v>
       </c>
       <c r="N50" t="n">
-        <v>0.8317831651391098</v>
+        <v>0.9355368332486419</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3263,103 +3263,103 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60158.fa</t>
+          <t>even_MAG-GUT61266.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006563478525477116</v>
+        <v>0.8873500348399116</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9441072902628724</v>
+        <v>0.00122274000326469</v>
       </c>
       <c r="D51" t="n">
-        <v>2.221708945094197e-14</v>
+        <v>1.123048545499473e-13</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0006796576588197518</v>
+        <v>0.03296956784276021</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01993842086409896</v>
+        <v>0.0140293301014901</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0002131802686650861</v>
+        <v>0.01900541936459934</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02079617914471086</v>
+        <v>0.0003785528873785834</v>
       </c>
       <c r="I51" t="n">
-        <v>1.735685290406375e-09</v>
+        <v>1.402149283867788e-06</v>
       </c>
       <c r="J51" t="n">
-        <v>0.00013768648311161</v>
+        <v>0.01265449361385334</v>
       </c>
       <c r="K51" t="n">
-        <v>2.081688734814665e-05</v>
+        <v>0.004112880949059976</v>
       </c>
       <c r="L51" t="n">
-        <v>0.002142987184823205</v>
+        <v>0.02356454051989541</v>
       </c>
       <c r="M51" t="n">
-        <v>0.005400300984365154</v>
+        <v>0.004711037728390633</v>
       </c>
       <c r="N51" t="n">
-        <v>0.9441072902628724</v>
+        <v>0.8873500348399116</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>s__Gemmiger qucibialis</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>s__Gemmiger qucibialis</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60164.fa</t>
+          <t>even_MAG-GUT61624.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9355368332486419</v>
+        <v>0.7603862016238553</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0001519872719220782</v>
+        <v>0.002177866732412639</v>
       </c>
       <c r="D52" t="n">
-        <v>5.098358681933613e-14</v>
+        <v>1.353332276695068e-13</v>
       </c>
       <c r="E52" t="n">
-        <v>0.008512105432972315</v>
+        <v>0.03185774659890532</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02661574480257276</v>
+        <v>0.03326267075530242</v>
       </c>
       <c r="G52" t="n">
-        <v>0.002169979215597017</v>
+        <v>0.02120524405421938</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0001378285207559669</v>
+        <v>0.0003614748867486739</v>
       </c>
       <c r="I52" t="n">
-        <v>6.311097095959288e-06</v>
+        <v>4.522048558383342e-06</v>
       </c>
       <c r="J52" t="n">
-        <v>0.006724096464147886</v>
+        <v>0.1020922626138308</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0002412338248304902</v>
+        <v>0.0008478852427956878</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01841385697322543</v>
+        <v>0.04040965908092412</v>
       </c>
       <c r="M52" t="n">
-        <v>0.001490023148187137</v>
+        <v>0.007394466362311921</v>
       </c>
       <c r="N52" t="n">
-        <v>0.9355368332486419</v>
+        <v>0.7603862016238553</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3375,103 +3375,103 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61266.fa</t>
+          <t>even_MAG-GUT61681.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8873500348399116</v>
+        <v>0.0001745322782802696</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00122274000326469</v>
+        <v>0.9831206711270298</v>
       </c>
       <c r="D53" t="n">
-        <v>1.123048545499473e-13</v>
+        <v>2.22045318315779e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03296956784276021</v>
+        <v>0.002723253240879849</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0140293301014901</v>
+        <v>0.0005608478531960657</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01900541936459934</v>
+        <v>0.0002126506411937082</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0003785528873785834</v>
+        <v>0.005437037749636729</v>
       </c>
       <c r="I53" t="n">
-        <v>1.402149283867788e-06</v>
+        <v>2.903643031460674e-05</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01265449361385334</v>
+        <v>0.0004822925861339696</v>
       </c>
       <c r="K53" t="n">
-        <v>0.004112880949059976</v>
+        <v>3.205427377530167e-05</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02356454051989541</v>
+        <v>0.001380153392988789</v>
       </c>
       <c r="M53" t="n">
-        <v>0.004711037728390633</v>
+        <v>0.005847470426548685</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8873500348399116</v>
+        <v>0.9831206711270298</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger qucibialis</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger qucibialis</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61624.fa</t>
+          <t>even_MAG-GUT75060.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7603862016238553</v>
+        <v>0.9190968702230936</v>
       </c>
       <c r="C54" t="n">
-        <v>0.002177866732412639</v>
+        <v>0.0002286619877869039</v>
       </c>
       <c r="D54" t="n">
-        <v>1.353332276695068e-13</v>
+        <v>4.503810288413949e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03185774659890532</v>
+        <v>0.002410757821527544</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03326267075530242</v>
+        <v>0.05999561895604497</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02120524405421938</v>
+        <v>0.00274372206099778</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0003614748867486739</v>
+        <v>7.410361360203625e-05</v>
       </c>
       <c r="I54" t="n">
-        <v>4.522048558383342e-06</v>
+        <v>4.709403565472183e-06</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1020922626138308</v>
+        <v>0.001106695672441513</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0008478852427956878</v>
+        <v>0.0002671397852822568</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04040965908092412</v>
+        <v>0.01188636865498541</v>
       </c>
       <c r="M54" t="n">
-        <v>0.007394466362311921</v>
+        <v>0.002185351820627438</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7603862016238553</v>
+        <v>0.9190968702230936</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3487,103 +3487,103 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61681.fa</t>
+          <t>even_MAG-GUT75577.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0001745322782802696</v>
+        <v>0.6369017209336486</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9831206711270298</v>
+        <v>0.000901542910104328</v>
       </c>
       <c r="D55" t="n">
-        <v>2.22045318315779e-14</v>
+        <v>1.389056560489128e-13</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002723253240879849</v>
+        <v>0.05466151373127259</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0005608478531960657</v>
+        <v>0.04692072851100033</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0002126506411937082</v>
+        <v>0.1412931388105089</v>
       </c>
       <c r="H55" t="n">
-        <v>0.005437037749636729</v>
+        <v>0.001009510240304773</v>
       </c>
       <c r="I55" t="n">
-        <v>2.903643031460674e-05</v>
+        <v>0.0001062750583056809</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0004822925861339696</v>
+        <v>0.0547929205425797</v>
       </c>
       <c r="K55" t="n">
-        <v>3.205427377530167e-05</v>
+        <v>0.01224692312506029</v>
       </c>
       <c r="L55" t="n">
-        <v>0.001380153392988789</v>
+        <v>0.03665490309480213</v>
       </c>
       <c r="M55" t="n">
-        <v>0.005847470426548685</v>
+        <v>0.01451082304227394</v>
       </c>
       <c r="N55" t="n">
-        <v>0.9831206711270298</v>
+        <v>0.6369017209336486</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>s__Gemmiger qucibialis</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>s__Gemmiger qucibialis</t>
+          <t>s__Gemmiger formicilis(reject)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75060.fa</t>
+          <t>even_MAG-GUT75677.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9190968702230936</v>
+        <v>0.841281103279744</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0002286619877869039</v>
+        <v>0.00043838006489965</v>
       </c>
       <c r="D56" t="n">
-        <v>4.503810288413949e-14</v>
+        <v>6.841663812871071e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002410757821527544</v>
+        <v>0.01137064356988448</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05999561895604497</v>
+        <v>0.008559747140233736</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00274372206099778</v>
+        <v>0.09000544066391336</v>
       </c>
       <c r="H56" t="n">
-        <v>7.410361360203625e-05</v>
+        <v>0.0007942131593881766</v>
       </c>
       <c r="I56" t="n">
-        <v>4.709403565472183e-06</v>
+        <v>4.923786147827848e-07</v>
       </c>
       <c r="J56" t="n">
-        <v>0.001106695672441513</v>
+        <v>0.02640632008969667</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0002671397852822568</v>
+        <v>0.0008410491049963834</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01188636865498541</v>
+        <v>0.01627781251182064</v>
       </c>
       <c r="M56" t="n">
-        <v>0.002185351820627438</v>
+        <v>0.004024798036739511</v>
       </c>
       <c r="N56" t="n">
-        <v>0.9190968702230936</v>
+        <v>0.841281103279744</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3599,47 +3599,47 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75577.fa</t>
+          <t>even_MAG-GUT80031.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.6369017209336486</v>
+        <v>0.8722893585581215</v>
       </c>
       <c r="C57" t="n">
-        <v>0.000901542910104328</v>
+        <v>0.0001711266081638577</v>
       </c>
       <c r="D57" t="n">
-        <v>1.389056560489128e-13</v>
+        <v>9.652657966696499e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>0.05466151373127259</v>
+        <v>0.001433501438428329</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04692072851100033</v>
+        <v>0.06179505181771989</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1412931388105089</v>
+        <v>0.03528423775018297</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001009510240304773</v>
+        <v>0.0001514090473883135</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0001062750583056809</v>
+        <v>0.0001215958798073932</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0547929205425797</v>
+        <v>0.002313064761512346</v>
       </c>
       <c r="K57" t="n">
-        <v>0.01224692312506029</v>
+        <v>0.001346878543407527</v>
       </c>
       <c r="L57" t="n">
-        <v>0.03665490309480213</v>
+        <v>0.02343341239618001</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01451082304227394</v>
+        <v>0.00166036319899134</v>
       </c>
       <c r="N57" t="n">
-        <v>0.6369017209336486</v>
+        <v>0.8722893585581215</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3655,47 +3655,47 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75677.fa</t>
+          <t>even_MAG-GUT84803.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.841281103279744</v>
+        <v>0.6640886695291272</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00043838006489965</v>
+        <v>0.001303838763194609</v>
       </c>
       <c r="D58" t="n">
-        <v>6.841663812871071e-14</v>
+        <v>9.870541186340218e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01137064356988448</v>
+        <v>0.0716814238385664</v>
       </c>
       <c r="F58" t="n">
-        <v>0.008559747140233736</v>
+        <v>0.1001718786825056</v>
       </c>
       <c r="G58" t="n">
-        <v>0.09000544066391336</v>
+        <v>0.08052590881002011</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0007942131593881766</v>
+        <v>0.001302518346305916</v>
       </c>
       <c r="I58" t="n">
-        <v>4.923786147827848e-07</v>
+        <v>2.329681937011082e-05</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02640632008969667</v>
+        <v>0.02638463056169438</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0008410491049963834</v>
+        <v>0.007602923857200082</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01627781251182064</v>
+        <v>0.0264054260514168</v>
       </c>
       <c r="M58" t="n">
-        <v>0.004024798036739511</v>
+        <v>0.02050948474050003</v>
       </c>
       <c r="N58" t="n">
-        <v>0.841281103279744</v>
+        <v>0.6640886695291272</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3704,278 +3704,278 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger formicilis(reject)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80031.fa</t>
+          <t>even_MAG-GUT84909.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.8722893585581215</v>
+        <v>0.09449760274147884</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0001711266081638577</v>
+        <v>0.001018830237916902</v>
       </c>
       <c r="D59" t="n">
-        <v>9.652657966696499e-14</v>
+        <v>1.070014623225118e-13</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001433501438428329</v>
+        <v>0.0288040732151049</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06179505181771989</v>
+        <v>0.06101800281961764</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03528423775018297</v>
+        <v>0.7410404781547951</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0001514090473883135</v>
+        <v>0.0109482156659641</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0001215958798073932</v>
+        <v>1.808774390601428e-07</v>
       </c>
       <c r="J59" t="n">
-        <v>0.002313064761512346</v>
+        <v>0.02160548094516371</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001346878543407527</v>
+        <v>0.0222519008096764</v>
       </c>
       <c r="L59" t="n">
-        <v>0.02343341239618001</v>
+        <v>0.01580065779086457</v>
       </c>
       <c r="M59" t="n">
-        <v>0.00166036319899134</v>
+        <v>0.003014576741871902</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8722893585581215</v>
+        <v>0.7410404781547951</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger sp900540775</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger sp900540775</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84803.fa</t>
+          <t>even_MAG-GUT88811.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6640886695291272</v>
+        <v>0.05667329146856641</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001303838763194609</v>
+        <v>0.005556655931285407</v>
       </c>
       <c r="D60" t="n">
-        <v>9.870541186340218e-14</v>
+        <v>4.420503114908993e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0716814238385664</v>
+        <v>0.05314282656959075</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1001718786825056</v>
+        <v>0.7793528406549272</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08052590881002011</v>
+        <v>0.02951920949774008</v>
       </c>
       <c r="H60" t="n">
-        <v>0.001302518346305916</v>
+        <v>0.003654801350732654</v>
       </c>
       <c r="I60" t="n">
-        <v>2.329681937011082e-05</v>
+        <v>8.084260671717624e-08</v>
       </c>
       <c r="J60" t="n">
-        <v>0.02638463056169438</v>
+        <v>0.02859926056389244</v>
       </c>
       <c r="K60" t="n">
-        <v>0.007602923857200082</v>
+        <v>0.001001609633478598</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0264054260514168</v>
+        <v>0.01884712411444131</v>
       </c>
       <c r="M60" t="n">
-        <v>0.02050948474050003</v>
+        <v>0.02365229937269435</v>
       </c>
       <c r="N60" t="n">
-        <v>0.6640886695291272</v>
+        <v>0.7793528406549272</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger sp900540595</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>s__Gemmiger formicilis</t>
+          <t>s__Gemmiger sp900540595</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84909.fa</t>
+          <t>even_MAG-GUT9669.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.09449760274147884</v>
+        <v>0.6684804914417727</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001018830237916902</v>
+        <v>0.0004756107624127392</v>
       </c>
       <c r="D61" t="n">
-        <v>1.070014623225118e-13</v>
+        <v>6.480865093086424e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0288040732151049</v>
+        <v>0.01121856269572221</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06101800281961764</v>
+        <v>0.283896308495284</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7410404781547951</v>
+        <v>0.007370973891627672</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0109482156659641</v>
+        <v>0.0001162091908895459</v>
       </c>
       <c r="I61" t="n">
-        <v>1.808774390601428e-07</v>
+        <v>0.0005788185637230139</v>
       </c>
       <c r="J61" t="n">
-        <v>0.02160548094516371</v>
+        <v>0.0007020053694916716</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0222519008096764</v>
+        <v>0.009155921004532729</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01580065779086457</v>
+        <v>0.01556369236597087</v>
       </c>
       <c r="M61" t="n">
-        <v>0.003014576741871902</v>
+        <v>0.002441406218508013</v>
       </c>
       <c r="N61" t="n">
-        <v>0.7410404781547951</v>
+        <v>0.6684804914417727</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>s__Gemmiger sp900540775</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>s__Gemmiger sp900540775</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88811.fa</t>
+          <t>even_MAG-GUT9684.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.05667329146856641</v>
+        <v>0.7382410534097726</v>
       </c>
       <c r="C62" t="n">
-        <v>0.005556655931285407</v>
+        <v>0.001069907538449396</v>
       </c>
       <c r="D62" t="n">
-        <v>4.420503114908993e-14</v>
+        <v>5.445348793533565e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>0.05314282656959075</v>
+        <v>0.01123365573577982</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7793528406549272</v>
+        <v>0.003438706630235805</v>
       </c>
       <c r="G62" t="n">
-        <v>0.02951920949774008</v>
+        <v>0.224364878220636</v>
       </c>
       <c r="H62" t="n">
-        <v>0.003654801350732654</v>
+        <v>0.0001596877723335683</v>
       </c>
       <c r="I62" t="n">
-        <v>8.084260671717624e-08</v>
+        <v>1.021992927927073e-07</v>
       </c>
       <c r="J62" t="n">
-        <v>0.02859926056389244</v>
+        <v>0.008677334332032834</v>
       </c>
       <c r="K62" t="n">
-        <v>0.001001609633478598</v>
+        <v>0.001861947261937039</v>
       </c>
       <c r="L62" t="n">
-        <v>0.01884712411444131</v>
+        <v>0.01017855306497452</v>
       </c>
       <c r="M62" t="n">
-        <v>0.02365229937269435</v>
+        <v>0.0007741738345011524</v>
       </c>
       <c r="N62" t="n">
-        <v>0.7793528406549272</v>
+        <v>0.7382410534097726</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>s__Gemmiger sp900540595</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>s__Gemmiger sp900540595</t>
+          <t>s__Gemmiger formicilis</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9669.fa</t>
+          <t>even_MAG-GUT9714.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6684804914417727</v>
+        <v>0.5706216458938904</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0004756107624127392</v>
+        <v>0.002011193996445916</v>
       </c>
       <c r="D63" t="n">
-        <v>6.480865093086424e-14</v>
+        <v>3.416406856331225e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01121856269572221</v>
+        <v>0.01798757795054913</v>
       </c>
       <c r="F63" t="n">
-        <v>0.283896308495284</v>
+        <v>0.02553749676595143</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007370973891627672</v>
+        <v>0.3549804672921949</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0001162091908895459</v>
+        <v>0.002815166438150275</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0005788185637230139</v>
+        <v>3.338290794114404e-07</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0007020053694916716</v>
+        <v>0.01456902070142585</v>
       </c>
       <c r="K63" t="n">
-        <v>0.009155921004532729</v>
+        <v>0.002274679616494479</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01556369236597087</v>
+        <v>0.007599547846763439</v>
       </c>
       <c r="M63" t="n">
-        <v>0.002441406218508013</v>
+        <v>0.00160286966902046</v>
       </c>
       <c r="N63" t="n">
-        <v>0.6684804914417727</v>
+        <v>0.5706216458938904</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3983,118 +3983,6 @@
         </is>
       </c>
       <c r="P63" t="inlineStr">
-        <is>
-          <t>s__Gemmiger formicilis</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9684.fa</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.7382410534097726</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.001069907538449396</v>
-      </c>
-      <c r="D64" t="n">
-        <v>5.445348793533565e-14</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.01123365573577982</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.003438706630235805</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.224364878220636</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0001596877723335683</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.021992927927073e-07</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.008677334332032834</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.001861947261937039</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.01017855306497452</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.0007741738345011524</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.7382410534097726</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>s__Gemmiger formicilis</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>s__Gemmiger formicilis</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9714.fa</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.5706216458938904</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.002011193996445916</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3.416406856331225e-14</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.01798757795054913</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.02553749676595143</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.3549804672921949</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.002815166438150275</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.338290794114404e-07</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.01456902070142585</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.002274679616494479</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.007599547846763439</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.00160286966902046</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.5706216458938904</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>s__Gemmiger formicilis</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
         <is>
           <t>s__Gemmiger formicilis(reject)</t>
         </is>
